--- a/data/trans_dic/P15D$urgencias-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15D$urgencias-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,46; 75,12</t>
+          <t>34,37; 76,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,18; 79,02</t>
+          <t>54,97; 78,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,91; 75,06</t>
+          <t>47,27; 75,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,95; 69,17</t>
+          <t>38,06; 68,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,66; 88,65</t>
+          <t>45,92; 88,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,0; 71,96</t>
+          <t>42,03; 69,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,27; 76,97</t>
+          <t>48,33; 75,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,45; 61,2</t>
+          <t>41,05; 62,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>45,06; 76,58</t>
+          <t>44,5; 75,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>53,3; 71,11</t>
+          <t>53,9; 71,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53,27; 72,35</t>
+          <t>52,51; 72,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,64; 63,67</t>
+          <t>42,76; 62,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,38; 71,62</t>
+          <t>39,82; 70,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,24; 75,39</t>
+          <t>51,81; 74,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,21; 70,49</t>
+          <t>43,76; 70,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,12; 66,42</t>
+          <t>37,06; 66,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,11; 75,79</t>
+          <t>39,95; 76,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,97; 63,82</t>
+          <t>40,69; 65,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,57; 69,17</t>
+          <t>37,49; 68,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,74; 59,89</t>
+          <t>34,81; 59,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,73; 68,54</t>
+          <t>44,57; 68,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50,1; 66,58</t>
+          <t>50,17; 66,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46,12; 64,82</t>
+          <t>44,97; 65,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,5; 59,92</t>
+          <t>39,73; 60,67</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 34,54</t>
+          <t>3,59; 32,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,49; 70,82</t>
+          <t>43,87; 70,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,89; 82,13</t>
+          <t>49,96; 81,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>43,59; 78,75</t>
+          <t>42,76; 79,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>55,42; 89,3</t>
+          <t>55,95; 90,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,39; 78,42</t>
+          <t>52,86; 76,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,11; 82,49</t>
+          <t>47,76; 81,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,38; 64,66</t>
+          <t>40,15; 65,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,11; 59,72</t>
+          <t>31,16; 59,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>51,92; 69,86</t>
+          <t>52,47; 70,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>53,31; 77,14</t>
+          <t>53,44; 77,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>45,13; 66,12</t>
+          <t>43,84; 66,78</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,27; 67,44</t>
+          <t>32,89; 68,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,34; 58,48</t>
+          <t>36,7; 57,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,13; 72,62</t>
+          <t>45,93; 70,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,35; 80,62</t>
+          <t>53,76; 79,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,8; 77,68</t>
+          <t>34,22; 77,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,98; 59,97</t>
+          <t>35,15; 59,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>60,56; 83,78</t>
+          <t>59,75; 85,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,54; 62,11</t>
+          <t>42,81; 62,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,96; 66,74</t>
+          <t>40,2; 65,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,33; 56,2</t>
+          <t>39,84; 55,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>57,29; 74,67</t>
+          <t>57,69; 75,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,91; 66,86</t>
+          <t>51,95; 67,83</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,08; 55,57</t>
+          <t>36,34; 55,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,59; 64,1</t>
+          <t>52,06; 64,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53,55; 67,8</t>
+          <t>53,48; 67,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50,82; 65,42</t>
+          <t>50,28; 66,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,18; 73,78</t>
+          <t>54,64; 74,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,52; 60,36</t>
+          <t>49,01; 62,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>57,41; 71,98</t>
+          <t>57,09; 71,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44,71; 56,4</t>
+          <t>44,23; 56,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>47,78; 61,13</t>
+          <t>47,39; 60,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52,23; 61,31</t>
+          <t>52,43; 61,04</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>57,67; 67,53</t>
+          <t>57,64; 67,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>49,66; 59,19</t>
+          <t>49,97; 59,18</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya consecuencia del último accidente fue, al menos, acudir a urgencias</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12670</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>40014</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>25814</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>24363</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11187</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>30456</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31110</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22153</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23857</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>70470</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>56924</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>46516</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7830; 17491</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>32444; 46386</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>19669; 31426</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17080; 30643</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7286; 14082</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22053; 36577</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23522; 36839</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17752; 27231</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17197; 29208</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>60096; 79527</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>47408; 65680</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37683; 55291</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23507</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>50489</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>34593</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>34364</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17671</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>38339</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>25341</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27231</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>41178</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>88828</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>59935</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>61594</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17034; 30020</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>40971; 59191</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>26467; 42539</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24849; 44315</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12040; 23168</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>29517; 47720</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17776; 32663</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19926; 34148</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>32495; 49892</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>76067; 100496</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>48521; 70684</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>49377; 75413</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33334</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24751</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18408</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>18343</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>37137</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20790</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22713</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21944</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>70471</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>45541</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>854; 7698</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25207; 40571</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18320; 29937</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12501; 23253</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13491; 21912</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30151; 43548</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15075; 25592</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17708; 29001</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14933; 28658</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>60083; 80303</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>36460; 53146</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32155; 48977</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>17127</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>42193</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>35896</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>40623</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13676</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>34617</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>46449</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>36165</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30804</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>76810</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>82345</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>76788</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11086; 23033</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32375; 50863</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>27964; 43041</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>31658; 46808</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8106; 18394</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>25411; 42871</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>37414; 53328</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>29545; 42919</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>23075; 37771</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>63935; 89706</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>71244; 92647</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>66446; 86752</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>56905</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>166030</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>121054</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>117758</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>60878</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>140550</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>123689</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>108262</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>117783</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>306580</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>244744</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>226020</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>44731; 68097</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>147737; 181822</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>106766; 134514</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>100593; 132643</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>51253; 69745</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>124644; 157938</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>108617; 136617</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>94485; 121523</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>102779; 131867</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>282136; 328442</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>224745; 262987</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>206704; 244820</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>